--- a/Module02/Lab_17_Regression-in-Excel/Task1_data.xlsx
+++ b/Module02/Lab_17_Regression-in-Excel/Task1_data.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericmartinet/Documents/GitHub/IRONLABS/Module02/Lab_17_Regression-in-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFAD247-96F2-4FAD-ACA9-613DC9918CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7054320E-C666-CF40-8896-903362F62559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Statistics" sheetId="2" r:id="rId2"/>
+    <sheet name="Prediction" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$W$187</definedName>
   </definedNames>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="428">
   <si>
     <t>Iraq</t>
   </si>
@@ -1281,11 +1279,71 @@
       <t xml:space="preserve">Create a bar chart that shows 10 countries with the lowest results in 2019. The chart should have the title, axes and data labels. Explain the chart </t>
     </r>
   </si>
+  <si>
+    <t>Task 5</t>
+  </si>
+  <si>
+    <t>Create a line chart that shows the dynamics of the indicator for Eritrea and Bhutan. The chart should have the title, axes and data labels. Explain the chart</t>
+  </si>
+  <si>
+    <t>All the above countries are African countries and access to electricity is very low (&lt; 30%).</t>
+  </si>
+  <si>
+    <t>Both countries had a similar access to electricity in 2000 (about 30% of population) and the numbers have increased since then.</t>
+  </si>
+  <si>
+    <t>However, the progress of Bhutan were much faster, as now all its population has access to electricity, while it is only 50% in Bhutan.</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>BURUNDI</t>
+  </si>
+  <si>
+    <t>Access to electricity (% of pop.)</t>
+  </si>
+  <si>
+    <t>R-squared</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Exponential</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Polynomial (deg 2)</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Year rebased</t>
+  </si>
+  <si>
+    <t>We rebase the years as there is no reason the % depends on the value of the year.</t>
+  </si>
+  <si>
+    <t>We set the intercept at the first year.</t>
+  </si>
+  <si>
+    <t>Exponential has the best fit, but for practical purposes we will use polynomial</t>
+  </si>
+  <si>
+    <t>as we do not have enough digits displayed in the equation.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1320,12 +1378,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1340,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1357,7 +1421,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,7 +1443,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1396,7 +1461,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1409,15 +1474,15 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" sz="1200"/>
               <a:t>Access to electricity (% of population),  10</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:rPr lang="fr-FR" sz="1200" baseline="0"/>
               <a:t> countries with the lowest values, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="fr-FR"/>
+              <a:rPr lang="fr-FR" sz="1200"/>
               <a:t>2019 </a:t>
             </a:r>
           </a:p>
@@ -1436,7 +1501,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1583,7 +1648,7 @@
             <c:numRef>
               <c:f>Statistics!$B$22:$B$31</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>6.7205352783203098</c:v>
@@ -1645,61 +1710,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="fr-FR"/>
-                  <a:t>Country</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="fr-FR"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1820,7 +1830,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1907,7 +1917,1548 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Access to electricity (% of population)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Eritrea and Bhutan, 2000-2019</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eritrea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Statistics!$B$42:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$B$43:$U$43</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>29.2042427062988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.301435470581101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.469783782958999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33.538585662841797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.5957221984863</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.643730163574197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.688686370849602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.736824035644503</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.794387817382798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.867607116699197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.962718963622997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42.084251403808601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43.229896545410199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.395633697509801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.577445983886697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.771312713622997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.973213195800803</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.1791381835938</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.385730743408203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EC5-8544-8C21-4475A1439D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Statistics!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bhutan</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Statistics!$B$42:$U$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Statistics!$B$44:$U$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>31.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.091510772705099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.043014526367202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51.916454315185497</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.8081116441343</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.746795654296903</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.565086364746094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.485244750976605</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73.282910874897794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.687995910644503</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>91.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87.371147155761705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>91.399482727050795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>95.443893432617202</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>99.500358581542997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>99.968772888183594</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9EC5-8544-8C21-4475A1439D48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1492055183"/>
+        <c:axId val="1441647872"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1492055183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1441647872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1441647872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1492055183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>BURUNDI: Access to electricity (% of pop.)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Prediction!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Access to electricity (% of pop.)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:intercept val="2.4"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5187682019199654E-3"/>
+                  <c:y val="0.3096309963099631"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Prediction!$B$4:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Prediction!$C$4:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.4396891593933101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8013172149658199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1546571254730198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4985325336456299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8317673206329301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2073170731707301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.77516794204712</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.4097371101379403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1069364547729501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4030895233154297</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2517995834350604</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.598614692688001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11.0647974014282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B77C-3445-A75A-3E594EACB08C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2007195168"/>
+        <c:axId val="2084235328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2007195168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" b="1"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2084235328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2084235328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" b="1"/>
+                  <a:t>%</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2007195168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2450,20 +4001,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>151130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:rowOff>151130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2488,30 +5071,84 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46C48D88-E3E3-3543-A684-D2E60BE6B772}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-      <sheetName val="Statistics"/>
-      <sheetName val="Series - Metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="15">
-          <cell r="B15">
-            <v>89.055543899536133</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C743C2-9050-5846-9F8E-3359FC356D4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2801,16 +5438,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W187"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:W4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>384</v>
       </c>
@@ -2881,7 +5518,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -2952,7 +5589,7 @@
         <v>6.7205352783203098</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>331</v>
       </c>
@@ -3023,7 +5660,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>250</v>
       </c>
@@ -3094,7 +5731,7 @@
         <v>11.0647974014282</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>290</v>
       </c>
@@ -3165,7 +5802,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -3236,7 +5873,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>70</v>
       </c>
@@ -3307,7 +5944,7 @@
         <v>18.379152297973601</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -3378,7 +6015,7 @@
         <v>18.774724960327099</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>262</v>
       </c>
@@ -3449,7 +6086,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>380</v>
       </c>
@@ -3520,7 +6157,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -3591,7 +6228,7 @@
         <v>26.907184600830099</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -3662,7 +6299,7 @@
         <v>27.6492099761963</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>329</v>
       </c>
@@ -3733,7 +6370,7 @@
         <v>29.616161346435501</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>319</v>
       </c>
@@ -3804,7 +6441,7 @@
         <v>31.040412902831999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>287</v>
       </c>
@@ -3875,7 +6512,7 @@
         <v>36.033195495605497</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>309</v>
       </c>
@@ -3946,7 +6583,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>142</v>
       </c>
@@ -4017,7 +6654,7 @@
         <v>37.782436370849602</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>340</v>
       </c>
@@ -4088,7 +6725,7 @@
         <v>40.318740844726598</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>395</v>
       </c>
@@ -4159,7 +6796,7 @@
         <v>41.089107513427699</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>375</v>
       </c>
@@ -4230,7 +6867,7 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>315</v>
       </c>
@@ -4301,7 +6938,7 @@
         <v>42.418388366699197</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -4372,7 +7009,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>266</v>
       </c>
@@ -4443,7 +7080,7 @@
         <v>44.640678405761697</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>184</v>
       </c>
@@ -4514,7 +7151,7 @@
         <v>48.021247863769503</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>388</v>
       </c>
@@ -4585,7 +7222,7 @@
         <v>50.385730743408203</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -4656,7 +7293,7 @@
         <v>52.441097259521499</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -4727,7 +7364,7 @@
         <v>55.195117950439503</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -4798,7 +7435,7 @@
         <v>55.4</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -4869,7 +7506,7 @@
         <v>59.921287536621101</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -4940,7 +7577,7 @@
         <v>61.275936126708999</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>396</v>
       </c>
@@ -5011,7 +7648,7 @@
         <v>63.452312469482401</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -5082,7 +7719,7 @@
         <v>63.464511871337898</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>341</v>
       </c>
@@ -5153,7 +7790,7 @@
         <v>64.666236877441406</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>297</v>
       </c>
@@ -5224,7 +7861,7 @@
         <v>68.532188415527301</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>371</v>
       </c>
@@ -5295,7 +7932,7 @@
         <v>68.550109863281307</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>393</v>
       </c>
@@ -5366,7 +8003,7 @@
         <v>69.7</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -5437,7 +8074,7 @@
         <v>70.183181762695298</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -5508,7 +8145,7 @@
         <v>70.258491516113295</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -5579,7 +8216,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>378</v>
       </c>
@@ -5650,7 +8287,7 @@
         <v>72.751701354980497</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>394</v>
       </c>
@@ -5721,7 +8358,7 @@
         <v>73.914360046386705</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -5792,7 +8429,7 @@
         <v>75.181907653808594</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>187</v>
       </c>
@@ -5863,7 +8500,7 @@
         <v>92.021690368652301</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -5934,7 +8571,7 @@
         <v>92.2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>168</v>
       </c>
@@ -6005,7 +8642,7 @@
         <v>92.72</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>295</v>
       </c>
@@ -6076,7 +8713,7 @@
         <v>92.779525756835895</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>364</v>
       </c>
@@ -6147,7 +8784,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>363</v>
       </c>
@@ -6218,7 +8855,7 @@
         <v>94.716178894042997</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -6289,7 +8926,7 @@
         <v>95.428741455078097</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>261</v>
       </c>
@@ -6360,7 +8997,7 @@
         <v>95.533538818359403</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -6431,7 +9068,7 @@
         <v>95.628623962402301</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -6502,7 +9139,7 @@
         <v>95.724571228027301</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>289</v>
       </c>
@@ -6573,7 +9210,7 @@
         <v>95.834556579589801</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>35</v>
       </c>
@@ -6644,7 +9281,7 @@
         <v>96.3031005859375</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
@@ -6715,7 +9352,7 @@
         <v>99.383773803710895</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -6786,7 +9423,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -6857,7 +9494,7 @@
         <v>99.547775268554702</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>21</v>
       </c>
@@ -6928,7 +9565,7 @@
         <v>99.6</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>26</v>
       </c>
@@ -6999,7 +9636,7 @@
         <v>99.635391235351605</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>179</v>
       </c>
@@ -7070,7 +9707,7 @@
         <v>99.71</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>299</v>
       </c>
@@ -7141,7 +9778,7 @@
         <v>99.766273498535199</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>325</v>
       </c>
@@ -7212,7 +9849,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -7283,7 +9920,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>167</v>
       </c>
@@ -7354,7 +9991,7 @@
         <v>99.8</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>246</v>
       </c>
@@ -7425,7 +10062,7 @@
         <v>99.881752014160199</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>284</v>
       </c>
@@ -7496,7 +10133,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>278</v>
       </c>
@@ -7567,7 +10204,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>311</v>
       </c>
@@ -7638,7 +10275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>313</v>
       </c>
@@ -7709,7 +10346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -7780,7 +10417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>33</v>
       </c>
@@ -7851,7 +10488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>373</v>
       </c>
@@ -7922,7 +10559,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>117</v>
       </c>
@@ -7993,7 +10630,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>312</v>
       </c>
@@ -8064,7 +10701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>217</v>
       </c>
@@ -8135,7 +10772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>259</v>
       </c>
@@ -8206,7 +10843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>356</v>
       </c>
@@ -8277,7 +10914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -8348,7 +10985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -8419,7 +11056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>267</v>
       </c>
@@ -8490,7 +11127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -8561,7 +11198,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -8632,7 +11269,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -8703,7 +11340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>73</v>
       </c>
@@ -8774,7 +11411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>170</v>
       </c>
@@ -8845,7 +11482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>268</v>
       </c>
@@ -8916,7 +11553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>214</v>
       </c>
@@ -8987,7 +11624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>135</v>
       </c>
@@ -9058,7 +11695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>216</v>
       </c>
@@ -9129,7 +11766,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>365</v>
       </c>
@@ -9200,7 +11837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -9271,7 +11908,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -9342,7 +11979,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>314</v>
       </c>
@@ -9413,7 +12050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>54</v>
       </c>
@@ -9484,7 +12121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>48</v>
       </c>
@@ -9555,7 +12192,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -9626,7 +12263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>30</v>
       </c>
@@ -9697,7 +12334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>64</v>
       </c>
@@ -9768,7 +12405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -9839,7 +12476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>163</v>
       </c>
@@ -9910,7 +12547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -9981,7 +12618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>181</v>
       </c>
@@ -10052,7 +12689,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>227</v>
       </c>
@@ -10123,7 +12760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>38</v>
       </c>
@@ -10194,7 +12831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -10265,7 +12902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>191</v>
       </c>
@@ -10336,7 +12973,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>303</v>
       </c>
@@ -10407,7 +13044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>324</v>
       </c>
@@ -10478,7 +13115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>346</v>
       </c>
@@ -10549,7 +13186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>195</v>
       </c>
@@ -10620,7 +13257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>205</v>
       </c>
@@ -10691,7 +13328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>224</v>
       </c>
@@ -10762,7 +13399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>330</v>
       </c>
@@ -10833,7 +13470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>110</v>
       </c>
@@ -10904,7 +13541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>252</v>
       </c>
@@ -10975,7 +13612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>204</v>
       </c>
@@ -11046,7 +13683,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>277</v>
       </c>
@@ -11117,7 +13754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>193</v>
       </c>
@@ -11188,7 +13825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>236</v>
       </c>
@@ -11259,7 +13896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>99</v>
       </c>
@@ -11330,7 +13967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>162</v>
       </c>
@@ -11401,7 +14038,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>273</v>
       </c>
@@ -11472,7 +14109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>178</v>
       </c>
@@ -11543,7 +14180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>32</v>
       </c>
@@ -11614,7 +14251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>196</v>
       </c>
@@ -11685,7 +14322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>186</v>
       </c>
@@ -11756,7 +14393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>254</v>
       </c>
@@ -11827,7 +14464,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>77</v>
       </c>
@@ -11898,7 +14535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>374</v>
       </c>
@@ -11969,7 +14606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>279</v>
       </c>
@@ -12040,7 +14677,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>391</v>
       </c>
@@ -12111,7 +14748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -12182,7 +14819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>31</v>
       </c>
@@ -12253,7 +14890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>18</v>
       </c>
@@ -12324,7 +14961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>65</v>
       </c>
@@ -12395,7 +15032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -12466,7 +15103,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>255</v>
       </c>
@@ -12537,7 +15174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>97</v>
       </c>
@@ -12608,7 +15245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>390</v>
       </c>
@@ -12679,7 +15316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>107</v>
       </c>
@@ -12750,7 +15387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>228</v>
       </c>
@@ -12821,7 +15458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>387</v>
       </c>
@@ -12892,7 +15529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>144</v>
       </c>
@@ -12963,7 +15600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>335</v>
       </c>
@@ -13034,7 +15671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>219</v>
       </c>
@@ -13105,7 +15742,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>153</v>
       </c>
@@ -13176,7 +15813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>317</v>
       </c>
@@ -13247,7 +15884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>208</v>
       </c>
@@ -13318,7 +15955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>253</v>
       </c>
@@ -13389,7 +16026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>213</v>
       </c>
@@ -13460,7 +16097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -13531,7 +16168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -13602,7 +16239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>385</v>
       </c>
@@ -13673,7 +16310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>302</v>
       </c>
@@ -13744,7 +16381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>72</v>
       </c>
@@ -13815,7 +16452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>102</v>
       </c>
@@ -13886,7 +16523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>366</v>
       </c>
@@ -13957,7 +16594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>377</v>
       </c>
@@ -14028,7 +16665,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>44</v>
       </c>
@@ -14099,7 +16736,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>223</v>
       </c>
@@ -14170,7 +16807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>300</v>
       </c>
@@ -14241,7 +16878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>334</v>
       </c>
@@ -14312,7 +16949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>296</v>
       </c>
@@ -14383,7 +17020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1</v>
       </c>
@@ -14454,7 +17091,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>240</v>
       </c>
@@ -14525,7 +17162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>251</v>
       </c>
@@ -14596,7 +17233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>269</v>
       </c>
@@ -14667,7 +17304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>188</v>
       </c>
@@ -14738,7 +17375,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>199</v>
       </c>
@@ -14809,7 +17446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>194</v>
       </c>
@@ -14880,7 +17517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>49</v>
       </c>
@@ -14951,7 +17588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>207</v>
       </c>
@@ -15022,7 +17659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>43</v>
       </c>
@@ -15093,7 +17730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>105</v>
       </c>
@@ -15164,7 +17801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>229</v>
       </c>
@@ -15235,7 +17872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>25</v>
       </c>
@@ -15306,7 +17943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -15377,7 +18014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>209</v>
       </c>
@@ -15448,7 +18085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>225</v>
       </c>
@@ -15519,7 +18156,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>337</v>
       </c>
@@ -15590,7 +18227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>0</v>
       </c>
@@ -15661,7 +18298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>342</v>
       </c>
@@ -15732,7 +18369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>234</v>
       </c>
@@ -15803,7 +18440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>238</v>
       </c>
@@ -15874,7 +18511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2</v>
       </c>
@@ -15945,7 +18582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -16016,7 +18653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>231</v>
       </c>
@@ -16099,43 +18736,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460596BC-2D51-4ADE-9401-FC3717B4C66D}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26"/>
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>384</v>
       </c>
@@ -16220,7 +18857,7 @@
         <v>2019 [YR2019]</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>402</v>
       </c>
@@ -16305,12 +18942,12 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>404</v>
       </c>
@@ -16319,7 +18956,7 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>405</v>
       </c>
@@ -16328,15 +18965,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>404</v>
       </c>
@@ -16345,30 +18982,29 @@
         <v>87.375514185710614</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>406</v>
       </c>
       <c r="B16">
-        <f>COUNTIF(Data!W2:W187, "&lt;"&amp;[1]Statistics!B15)</f>
         <v>41</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>384</v>
       </c>
@@ -16376,7 +19012,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -16384,7 +19020,7 @@
         <v>6.7205352783203098</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>331</v>
       </c>
@@ -16392,7 +19028,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>250</v>
       </c>
@@ -16400,7 +19036,7 @@
         <v>11.0647974014282</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>290</v>
       </c>
@@ -16408,7 +19044,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>103</v>
       </c>
@@ -16416,7 +19052,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -16424,7 +19060,7 @@
         <v>18.379152297973601</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -16432,7 +19068,7 @@
         <v>18.774724960327099</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>262</v>
       </c>
@@ -16440,7 +19076,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>380</v>
       </c>
@@ -16448,12 +19084,229 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>220</v>
       </c>
       <c r="B31" s="8">
         <v>26.907184600830099</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>2000</v>
+      </c>
+      <c r="C42">
+        <v>2001</v>
+      </c>
+      <c r="D42">
+        <v>2002</v>
+      </c>
+      <c r="E42">
+        <v>2003</v>
+      </c>
+      <c r="F42">
+        <v>2004</v>
+      </c>
+      <c r="G42">
+        <v>2005</v>
+      </c>
+      <c r="H42">
+        <v>2006</v>
+      </c>
+      <c r="I42">
+        <v>2007</v>
+      </c>
+      <c r="J42">
+        <v>2008</v>
+      </c>
+      <c r="K42">
+        <v>2009</v>
+      </c>
+      <c r="L42">
+        <v>2010</v>
+      </c>
+      <c r="M42">
+        <v>2011</v>
+      </c>
+      <c r="N42">
+        <v>2012</v>
+      </c>
+      <c r="O42">
+        <v>2013</v>
+      </c>
+      <c r="P42">
+        <v>2014</v>
+      </c>
+      <c r="Q42">
+        <v>2015</v>
+      </c>
+      <c r="R42">
+        <v>2016</v>
+      </c>
+      <c r="S42">
+        <v>2017</v>
+      </c>
+      <c r="T42">
+        <v>2018</v>
+      </c>
+      <c r="U42">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" s="8">
+        <v>29.2042427062988</v>
+      </c>
+      <c r="C43" s="8">
+        <v>30.301435470581101</v>
+      </c>
+      <c r="D43" s="8">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="E43" s="8">
+        <v>32.469783782958999</v>
+      </c>
+      <c r="F43" s="8">
+        <v>33.538585662841797</v>
+      </c>
+      <c r="G43" s="8">
+        <v>34.5957221984863</v>
+      </c>
+      <c r="H43" s="8">
+        <v>35.643730163574197</v>
+      </c>
+      <c r="I43" s="8">
+        <v>36.688686370849602</v>
+      </c>
+      <c r="J43" s="8">
+        <v>37.736824035644503</v>
+      </c>
+      <c r="K43" s="8">
+        <v>38.794387817382798</v>
+      </c>
+      <c r="L43" s="8">
+        <v>39.867607116699197</v>
+      </c>
+      <c r="M43" s="8">
+        <v>40.962718963622997</v>
+      </c>
+      <c r="N43" s="8">
+        <v>42.084251403808601</v>
+      </c>
+      <c r="O43" s="8">
+        <v>43.229896545410199</v>
+      </c>
+      <c r="P43" s="8">
+        <v>44.395633697509801</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>45.577445983886697</v>
+      </c>
+      <c r="R43" s="8">
+        <v>46.771312713622997</v>
+      </c>
+      <c r="S43" s="8">
+        <v>47.973213195800803</v>
+      </c>
+      <c r="T43" s="8">
+        <v>49.1791381835938</v>
+      </c>
+      <c r="U43" s="8">
+        <v>50.385730743408203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="8">
+        <v>31.15</v>
+      </c>
+      <c r="C44" s="8">
+        <v>40.091510772705099</v>
+      </c>
+      <c r="D44" s="8">
+        <v>44.043014526367202</v>
+      </c>
+      <c r="E44" s="8">
+        <v>41.1</v>
+      </c>
+      <c r="F44" s="8">
+        <v>51.916454315185497</v>
+      </c>
+      <c r="G44" s="8">
+        <v>59.8081116441343</v>
+      </c>
+      <c r="H44" s="8">
+        <v>59.746795654296903</v>
+      </c>
+      <c r="I44" s="8">
+        <v>71.8</v>
+      </c>
+      <c r="J44" s="8">
+        <v>67.565086364746094</v>
+      </c>
+      <c r="K44" s="8">
+        <v>71.485244750976605</v>
+      </c>
+      <c r="L44" s="8">
+        <v>73.282910874897794</v>
+      </c>
+      <c r="M44" s="8">
+        <v>81.687995910644503</v>
+      </c>
+      <c r="N44" s="8">
+        <v>91.5</v>
+      </c>
+      <c r="O44" s="8">
+        <v>87.371147155761705</v>
+      </c>
+      <c r="P44" s="8">
+        <v>91.399482727050795</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>95.443893432617202</v>
+      </c>
+      <c r="R44" s="8">
+        <v>99.500358581542997</v>
+      </c>
+      <c r="S44" s="8">
+        <v>97.7</v>
+      </c>
+      <c r="T44" s="8">
+        <v>99.968772888183594</v>
+      </c>
+      <c r="U44" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -16461,4 +19314,421 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2B719B-3719-4542-9EBE-57FBAA2B86AB}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2.4396891593933101</v>
+      </c>
+      <c r="D4" s="8">
+        <f>0.016*B4^2+0.1505*B4+2.4</f>
+        <v>2.4</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2.8013172149658199</v>
+      </c>
+      <c r="D5" s="8">
+        <f t="shared" ref="D5:D25" si="0">0.016*B5^2+0.1505*B5+2.4</f>
+        <v>2.5665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3.1546571254730198</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.7649999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.4985325336456299</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>2.9954999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.8317673206329301</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>3.258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3.2073170731707301</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.5524999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2.66</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4.77516794204712</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>4.2374999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>4.6280000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5.4097371101379403</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>5.0504999999999995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5049999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.1069364547729501</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>5.9915000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D16" s="8">
+        <f t="shared" si="0"/>
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2013</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8">
+        <v>6.9</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" si="0"/>
+        <v>7.0604999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2014</v>
+      </c>
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="8">
+        <v>7</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>7.6430000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2015</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19" s="8">
+        <v>8.4030895233154297</v>
+      </c>
+      <c r="D19" s="8">
+        <f t="shared" si="0"/>
+        <v>8.2575000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2016</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" s="8">
+        <v>9.2517995834350604</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>8.9039999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D21" s="8">
+        <f t="shared" si="0"/>
+        <v>9.5824999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="C22" s="8">
+        <v>10.598614692688001</v>
+      </c>
+      <c r="D22" s="8">
+        <f t="shared" si="0"/>
+        <v>10.293000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8">
+        <v>11.0647974014282</v>
+      </c>
+      <c r="D23" s="8">
+        <f t="shared" si="0"/>
+        <v>11.035500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>11.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2021</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>12.6165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>418</v>
+      </c>
+      <c r="B28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29">
+        <v>0.97540000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>420</v>
+      </c>
+      <c r="B30">
+        <v>0.93220000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>421</v>
+      </c>
+      <c r="B31">
+        <v>0.97460000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>427</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>